--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2336349.811828834</v>
+        <v>-2338918.23526778</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>255.2332420067736</v>
+        <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
         <v>355.0091537477814</v>
@@ -1385,10 +1385,10 @@
         <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>46.51007702256283</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6557134484456</v>
+        <v>14.65571344844554</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369548</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8098843539887</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315733</v>
+        <v>359.3167223315732</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9107638574569</v>
+        <v>54.10794123631814</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>89.47509467769645</v>
+        <v>117.8337985898404</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43120408535773</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556698</v>
+        <v>62.01093634556693</v>
       </c>
       <c r="S13" t="n">
         <v>162.8478090069615</v>
@@ -1582,13 +1582,13 @@
         <v>192.6277329516888</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811326</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V13" t="n">
         <v>225.2164269993476</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121107</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X13" t="n">
         <v>198.7884390645568</v>
@@ -1607,13 +1607,13 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>230.0767146132048</v>
       </c>
       <c r="D14" t="n">
-        <v>234.7957818044961</v>
+        <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F14" t="n">
         <v>379.9548294172311</v>
@@ -1622,10 +1622,10 @@
         <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6557134484456</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315733</v>
+        <v>359.3167223315732</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,10 +1765,10 @@
         <v>152.9107638574569</v>
       </c>
       <c r="C16" t="n">
-        <v>110.2879531297556</v>
+        <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
         <v>119.5127463220888</v>
@@ -1777,13 +1777,13 @@
         <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8337985898404</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556698</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516888</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2906218811326</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V16" t="n">
         <v>225.2164269993476</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6017820121107</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X16" t="n">
         <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276144</v>
+        <v>131.0484123839616</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8374887204077</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C17" t="n">
         <v>291.3765388279346</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7866886776101</v>
+        <v>201.6054522142232</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G17" t="n">
-        <v>3.988230719931886</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H17" t="n">
         <v>220.7114114442475</v>
@@ -1895,13 +1895,13 @@
         <v>35.29140884510292</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965473</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U17" t="n">
         <v>177.0988190158291</v>
       </c>
       <c r="V17" t="n">
-        <v>253.855905527062</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>275.3446157743401</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9356272388644</v>
+        <v>168.3524372314898</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555491</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513944</v>
+        <v>74.71912007513943</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349626</v>
+        <v>72.53760970349624</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985833</v>
+        <v>71.52469507985832</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595531</v>
+        <v>92.1294553159553</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124787</v>
+        <v>70.85866197124786</v>
       </c>
       <c r="I19" t="n">
         <v>22.45606746676518</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.45260971960009</v>
+        <v>15.03579972697442</v>
       </c>
       <c r="S19" t="n">
         <v>115.872672388369</v>
@@ -2068,7 +2068,7 @@
         <v>151.8133024459642</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8374887204077</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C20" t="n">
         <v>291.3765388279346</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G20" t="n">
-        <v>169.3012567615826</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H20" t="n">
         <v>220.7114114442475</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29140884510291</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0988190158291</v>
+        <v>97.9175825524417</v>
       </c>
       <c r="V20" t="n">
-        <v>253.855905527062</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>275.3446157743401</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555489</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513944</v>
+        <v>74.71912007513941</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349626</v>
+        <v>72.53760970349623</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985833</v>
+        <v>71.5246950798583</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595531</v>
+        <v>154.5462653085808</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124787</v>
+        <v>70.85866197124784</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676518</v>
+        <v>22.45606746676517</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697442</v>
+        <v>15.0357997269744</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
@@ -2293,7 +2293,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U22" t="n">
-        <v>274.7322952551656</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V22" t="n">
         <v>178.2412903807551</v>
@@ -2305,7 +2305,7 @@
         <v>151.8133024459642</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8374887204077</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C23" t="n">
         <v>291.3765388279346</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0253727103806</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H23" t="n">
         <v>220.7114114442475</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510292</v>
+        <v>35.29140884510291</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0216171965473</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V23" t="n">
         <v>253.855905527062</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555489</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513944</v>
+        <v>74.71912007513941</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349626</v>
+        <v>72.53760970349623</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985833</v>
+        <v>71.5246950798583</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595531</v>
+        <v>92.12945531595528</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124787</v>
+        <v>70.85866197124784</v>
       </c>
       <c r="I25" t="n">
-        <v>84.87287745939072</v>
+        <v>22.45606746676517</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697442</v>
+        <v>15.0357997269744</v>
       </c>
       <c r="S25" t="n">
-        <v>115.872672388369</v>
+        <v>178.2894823809941</v>
       </c>
       <c r="T25" t="n">
         <v>145.6525963330963</v>
@@ -2542,7 +2542,7 @@
         <v>151.8133024459642</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,22 +2950,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1811.163756225852</v>
+        <v>1931.404827248066</v>
       </c>
       <c r="C11" t="n">
-        <v>1469.394387087946</v>
+        <v>1589.63545811016</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.583031525548</v>
+        <v>1258.562907305915</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9879267298096</v>
+        <v>899.9678025101759</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1951697427074</v>
+        <v>516.1750455230738</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31586739020943</v>
+        <v>128.2957431705757</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020943</v>
+        <v>81.31586739020926</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938771</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723701125498</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.38637220184</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516632660775</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.516632660775</v>
+        <v>3000.030314141563</v>
       </c>
       <c r="X11" t="n">
-        <v>2533.516632660775</v>
+        <v>2653.757703682989</v>
       </c>
       <c r="Y11" t="n">
-        <v>2170.570448487469</v>
+        <v>2290.811519509683</v>
       </c>
     </row>
     <row r="12">
@@ -5109,25 +5109,25 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3308347658146</v>
+        <v>518.1316656962587</v>
       </c>
       <c r="C13" t="n">
-        <v>276.587799640413</v>
+        <v>376.3886305708572</v>
       </c>
       <c r="D13" t="n">
-        <v>276.587799640413</v>
+        <v>376.3886305708572</v>
       </c>
       <c r="E13" t="n">
-        <v>276.587799640413</v>
+        <v>255.6686847909695</v>
       </c>
       <c r="F13" t="n">
-        <v>156.8909999450081</v>
+        <v>255.6686847909695</v>
       </c>
       <c r="G13" t="n">
-        <v>156.8909999450081</v>
+        <v>255.6686847909695</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.2867530403545</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504665</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601981</v>
+        <v>712.1377427601983</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388082</v>
+        <v>1451.007173388083</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469733</v>
       </c>
       <c r="P13" t="n">
         <v>2036.248281064627</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.510581378377</v>
+        <v>2140.510581378378</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.87327193841</v>
+        <v>2077.873271938411</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.380535567742</v>
+        <v>1913.380535567743</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.807067939773</v>
+        <v>1718.807067939774</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.897348867922</v>
+        <v>1456.897348867923</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.406008464541</v>
+        <v>1229.406008464542</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1819862300855</v>
+        <v>967.1819862300867</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3855831345736</v>
+        <v>766.3855831345744</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7861517935489</v>
+        <v>572.7861517935497</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1448.750487893727</v>
+        <v>2030.643005792014</v>
       </c>
       <c r="C14" t="n">
-        <v>1448.750487893727</v>
+        <v>1798.242283960495</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.583031525548</v>
+        <v>1467.16973315625</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9879267298097</v>
+        <v>1108.574628360511</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1951697427075</v>
+        <v>724.7818713734089</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31586739020943</v>
+        <v>336.9025690209108</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020943</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.821221795898</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>3146.821221795898</v>
+        <v>3099.268492685512</v>
       </c>
       <c r="V14" t="n">
-        <v>2842.951482254833</v>
+        <v>3099.268492685512</v>
       </c>
       <c r="W14" t="n">
-        <v>2517.375974787224</v>
+        <v>3099.268492685512</v>
       </c>
       <c r="X14" t="n">
-        <v>2171.103364328649</v>
+        <v>2752.995882226937</v>
       </c>
       <c r="Y14" t="n">
-        <v>1808.157180155343</v>
+        <v>2390.049698053631</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3308347658151</v>
+        <v>901.2616458242694</v>
       </c>
       <c r="C16" t="n">
-        <v>306.9288619074761</v>
+        <v>759.518610698868</v>
       </c>
       <c r="D16" t="n">
-        <v>306.9288619074761</v>
+        <v>636.5951190890376</v>
       </c>
       <c r="E16" t="n">
-        <v>186.2089161275884</v>
+        <v>515.8751733091499</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>396.178373613745</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>255.6686847909694</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6446458113326</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403548</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504669</v>
+        <v>368.9259401504664</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601983</v>
+        <v>712.1377427601981</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946792520983</v>
@@ -5455,31 +5455,31 @@
         <v>2036.248281064627</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.510581378378</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.873271938411</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567742</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.807067939774</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.897348867923</v>
+        <v>1878.600862306526</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.406008464541</v>
+        <v>1651.109521903144</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1819862300858</v>
+        <v>1388.885499668689</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3855831345741</v>
+        <v>1188.089096573177</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7861517935494</v>
+        <v>1055.716962852004</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.912701884256</v>
+        <v>1775.332808477247</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.592965694423</v>
+        <v>1481.013072287414</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9700478382515</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>629.824575990586</v>
+        <v>966.2257295162913</v>
       </c>
       <c r="F17" t="n">
-        <v>293.4814519515571</v>
+        <v>629.8826054772624</v>
       </c>
       <c r="G17" t="n">
         <v>289.4529360728375</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021646</v>
+        <v>3158.622967021644</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.735271046061</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.315164453069</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.189289933533</v>
+        <v>2701.609396526524</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.366312423032</v>
+        <v>2402.786419016023</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.869761197799</v>
+        <v>2087.28986779079</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5583,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877565</v>
+        <v>569.1142151877564</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104283</v>
+        <v>474.8208130104282</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486713</v>
+        <v>399.3469543486712</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168569</v>
+        <v>326.0766415168568</v>
       </c>
       <c r="F19" t="n">
         <v>253.8294747695252</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948229</v>
+        <v>160.7694188948228</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325936</v>
+        <v>89.19501286325935</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.059588775765</v>
+        <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.016485353171</v>
+        <v>1795.063768174004</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.892650673275</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.432564549498</v>
+        <v>1433.479847370331</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.390857094189</v>
+        <v>1253.438139915023</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078076</v>
+        <v>1038.663750628641</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603689</v>
+        <v>885.3169804812024</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674175</v>
+        <v>739.1671820882511</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1685.895556471782</v>
+        <v>1855.313855409962</v>
       </c>
       <c r="C20" t="n">
-        <v>1391.575820281949</v>
+        <v>1560.994119220129</v>
       </c>
       <c r="D20" t="n">
-        <v>1107.952902425777</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E20" t="n">
-        <v>796.8074305781115</v>
+        <v>966.2257295162919</v>
       </c>
       <c r="F20" t="n">
-        <v>460.4643065390826</v>
+        <v>629.8826054772632</v>
       </c>
       <c r="G20" t="n">
         <v>289.4529360728375</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3158.622967021645</v>
       </c>
       <c r="U20" t="n">
-        <v>3146.718125633587</v>
+        <v>3059.716317978774</v>
       </c>
       <c r="V20" t="n">
-        <v>2890.298019040595</v>
+        <v>3059.716317978774</v>
       </c>
       <c r="W20" t="n">
-        <v>2612.172144521059</v>
+        <v>2781.590443459239</v>
       </c>
       <c r="X20" t="n">
-        <v>2313.349167010558</v>
+        <v>2482.767465948738</v>
       </c>
       <c r="Y20" t="n">
-        <v>1997.852615785325</v>
+        <v>2167.270914723505</v>
       </c>
     </row>
     <row r="21">
@@ -5820,28 +5820,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1142151877565</v>
+        <v>632.1614980085901</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8208130104283</v>
+        <v>537.8680958312619</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3469543486713</v>
+        <v>462.3942371695049</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0766415168569</v>
+        <v>389.1239243376906</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695252</v>
+        <v>316.876757590359</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7694188948229</v>
+        <v>160.7694188948228</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325936</v>
+        <v>89.19501286325934</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
         <v>1912.106871596599</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063768174005</v>
+        <v>1795.063768174004</v>
       </c>
       <c r="T22" t="n">
         <v>1647.939933494109</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.432564549498</v>
+        <v>1433.479847370331</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.390857094189</v>
+        <v>1253.438139915023</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6164678078076</v>
+        <v>1038.663750628641</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2696976603689</v>
+        <v>885.3169804812024</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1198992674175</v>
+        <v>739.1671820882511</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073753</v>
+        <v>1862.179185073751</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.85944888392</v>
+        <v>1567.859448883918</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027748</v>
+        <v>1284.236531027746</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800823</v>
+        <v>973.0910591800808</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410534</v>
+        <v>636.747935141052</v>
       </c>
       <c r="G23" t="n">
         <v>296.3182657366274</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6622260753518</v>
+        <v>262.2565770549987</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4815997651983</v>
+        <v>596.0759507448452</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.515813013607</v>
+        <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.047717685532</v>
+        <v>1580.642068665178</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826534744314</v>
+        <v>2127.42088572396</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.799005623651</v>
+        <v>2630.393356603297</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573371980829</v>
+        <v>3151.377035732875</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241865</v>
+        <v>3609.855238241863</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798667</v>
+        <v>3668.872304798665</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.224417076341</v>
+        <v>3633.224417076339</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211142</v>
+        <v>3501.88945021114</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235557</v>
+        <v>3323.001754235555</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642565</v>
+        <v>3066.581647642563</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.45577312303</v>
+        <v>2788.455773123028</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612529</v>
+        <v>2489.632795612527</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387296</v>
+        <v>2174.136244387294</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>92.38473769443539</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865907</v>
+        <v>167.0547155865906</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669378</v>
+        <v>405.3189145669377</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796032</v>
+        <v>772.0170748796029</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656374</v>
+        <v>1692.816443656373</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777723074429</v>
+        <v>2103.777723074428</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277314550532</v>
+        <v>2414.277314550531</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.918872197131</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0268276723804</v>
+        <v>575.9795448515463</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7334254950522</v>
+        <v>481.686142674218</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2595668332951</v>
+        <v>406.2122840124611</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9892540014807</v>
+        <v>332.9419711806466</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7420872541491</v>
+        <v>260.694804433315</v>
       </c>
       <c r="G25" t="n">
-        <v>230.6820313794467</v>
+        <v>167.6347485586127</v>
       </c>
       <c r="H25" t="n">
-        <v>159.1076253478832</v>
+        <v>96.06034252704924</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872614917853</v>
+        <v>322.4872614917851</v>
       </c>
       <c r="L25" t="n">
         <v>639.0470599402813</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041055398304</v>
+        <v>983.2041055398303</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612482245695</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549581599768</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159877752283</v>
+        <v>1934.159877752282</v>
       </c>
       <c r="R25" t="n">
         <v>1918.972201260389</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.929097837794</v>
+        <v>1738.88181501696</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.805263157899</v>
+        <v>1591.757980337065</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.345177034121</v>
+        <v>1377.297894213287</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.303469578813</v>
+        <v>1197.256186757979</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.529080292431</v>
+        <v>982.4817974715974</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1823101449928</v>
+        <v>829.1350273241587</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0325117520414</v>
+        <v>682.9852289312073</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6215,40 +6215,40 @@
         <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659143</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424368</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3518.923563871314</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6260,10 +6260,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
         <v>779.7865456803188</v>
@@ -6315,7 +6315,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,13 +6379,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982173</v>
@@ -6403,16 +6403,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,61 +6449,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>298.3955717839928</v>
       </c>
       <c r="K29" t="n">
-        <v>810.8729904741854</v>
+        <v>632.2149454738392</v>
       </c>
       <c r="L29" t="n">
-        <v>1261.907203722594</v>
+        <v>1496.733761127194</v>
       </c>
       <c r="M29" t="n">
-        <v>2240.457506552423</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611205</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,13 +6649,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>393.299453099171</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890175</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037426</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.684944709351</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768133</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.43623264747</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094416</v>
+        <v>3521.246801226996</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6841,31 +6841,31 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,16 +6877,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697161</v>
@@ -7172,25 +7172,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>393.2994530991692</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>727.1188267890157</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.153040037424</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.684944709349</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768131</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647468</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
@@ -7205,7 +7205,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572845</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.154208495152</v>
       </c>
       <c r="I39" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
         <v>779.7865456803191</v>
@@ -7266,25 +7266,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T39" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U39" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V39" t="n">
         <v>1794.243147664371</v>
@@ -7293,10 +7293,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,7 +7330,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973144</v>
@@ -7339,7 +7339,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668916</v>
@@ -7412,22 +7412,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>810.872990474187</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1261.907203722596</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603403</v>
@@ -7454,7 +7454,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350172</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,28 +7646,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7682,16 +7682,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7810,19 +7810,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764232</v>
+        <v>212.1614152764226</v>
       </c>
       <c r="L5" t="n">
-        <v>225.930489318844</v>
+        <v>225.9304893188432</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603982</v>
+        <v>219.4018707603973</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030236</v>
+        <v>218.2916099030228</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661487</v>
+        <v>219.5965380661479</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111179</v>
+        <v>222.2700605111172</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357294</v>
+        <v>123.6869003357291</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344807</v>
+        <v>132.4563458344803</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915379</v>
+        <v>131.3134574915374</v>
       </c>
       <c r="M6" t="n">
-        <v>133.68421914377</v>
+        <v>133.6842191437693</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511133</v>
+        <v>122.6682558511126</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891798</v>
+        <v>134.6617264891792</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357708</v>
+        <v>127.6062572357704</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369106</v>
+        <v>135.7248343369102</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970309</v>
+        <v>130.7280129970306</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216061</v>
+        <v>134.5431653216057</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145262</v>
+        <v>123.4071347145259</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663801</v>
+        <v>134.5047345663799</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299172</v>
+        <v>134.3465531299169</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>127.4841543155556</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.7025298033873</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q26" t="n">
-        <v>167.7369666428354</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>28.65608477603865</v>
       </c>
       <c r="K29" t="n">
-        <v>40.02214132148612</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5185911550064</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431554</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.7369666428369</v>
+        <v>167.736966642837</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5185911550046</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>108.7354935515729</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>40.02214132148788</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>274.8351763665443</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>167.7369666428369</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2404088827751</v>
+        <v>15.24040888277509</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16194852731947</v>
+        <v>15.16194852731945</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>72.52858328942899</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>221.1764710402772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369544</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929326</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8098843539887</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>98.80282262113879</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>121.694256693732</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
         <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>28.35870391214398</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535773</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3516754465272</v>
+        <v>108.2749608333224</v>
       </c>
       <c r="D14" t="n">
-        <v>92.96604349170653</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6557134484456</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369548</v>
+        <v>82.26654546369549</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>30.03765164439185</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898404</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535773</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01093634556696</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8478090069615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>60.61502464365283</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>79.18123646338684</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.0371419904487</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>167.724115948798</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510292</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0216171965472</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>79.18123646338734</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1434904.707326493</v>
+        <v>1434904.707326492</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1320736.92548724</v>
+        <v>1320736.925487239</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1320736.92548724</v>
+        <v>1320736.925487239</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1387541.286638187</v>
+        <v>1387541.286638188</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1387541.286638187</v>
+        <v>1387541.286638188</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1387541.286638187</v>
+        <v>1387541.286638188</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.6338717038</v>
       </c>
       <c r="C2" t="n">
-        <v>81928.13000761745</v>
+        <v>81928.13000761742</v>
       </c>
       <c r="D2" t="n">
-        <v>81928.75455204686</v>
+        <v>81928.75455204684</v>
       </c>
       <c r="E2" t="n">
         <v>72954.18902528389</v>
@@ -26326,34 +26326,34 @@
         <v>72954.18902528388</v>
       </c>
       <c r="G2" t="n">
-        <v>79453.2013361843</v>
+        <v>79453.20133618428</v>
       </c>
       <c r="H2" t="n">
-        <v>79453.2013361843</v>
+        <v>79453.20133618428</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642825</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642828</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642831</v>
       </c>
-      <c r="L2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.1769864284</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642831</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945414</v>
+        <v>14118.19859945522</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072223</v>
+        <v>16714.64353072122</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905851</v>
+        <v>22820.44161905845</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728114</v>
+        <v>25410.44272728124</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200267</v>
+        <v>426739.1543200265</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210907</v>
+        <v>37585.46710210908</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210908</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521037</v>
+        <v>74613.2268652104</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521037</v>
+        <v>74613.22686521044</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913911</v>
+        <v>85473.00365913913</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="K4" t="n">
+        <v>80755.36360646601</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80755.36360646598</v>
+      </c>
+      <c r="M4" t="n">
+        <v>80755.36360646598</v>
+      </c>
+      <c r="N4" t="n">
         <v>80755.36360646592</v>
       </c>
-      <c r="L4" t="n">
-        <v>80755.36360646595</v>
-      </c>
-      <c r="M4" t="n">
-        <v>80755.36360646595</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80755.36360646589</v>
-      </c>
       <c r="O4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646599</v>
       </c>
     </row>
     <row r="5">
@@ -26470,37 +26470,37 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112993</v>
+        <v>33965.59259112996</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657605</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657602</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.7330569645</v>
+        <v>80518.73305696448</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.7330569645</v>
+        <v>80518.73305696448</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.38360144483</v>
+        <v>85736.3836014448</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-382598.475570972</v>
+        <v>-382602.8891488402</v>
       </c>
       <c r="C6" t="n">
-        <v>-392894.8155029934</v>
+        <v>-392899.2166774645</v>
       </c>
       <c r="D6" t="n">
-        <v>-390771.9437022253</v>
+        <v>-390776.3292630838</v>
       </c>
       <c r="E6" t="n">
-        <v>-1158369.699845321</v>
+        <v>-1158598.44954435</v>
       </c>
       <c r="F6" t="n">
-        <v>-41200.85837340122</v>
+        <v>-41429.6080724297</v>
       </c>
       <c r="G6" t="n">
-        <v>-113258.8678808646</v>
+        <v>-113325.1422721207</v>
       </c>
       <c r="H6" t="n">
-        <v>-75678.75858599057</v>
+        <v>-75745.03297724674</v>
       </c>
       <c r="I6" t="n">
-        <v>-111925.6518932142</v>
+        <v>-111925.6518932141</v>
       </c>
       <c r="J6" t="n">
-        <v>-113439.5710221249</v>
+        <v>-113439.571022125</v>
       </c>
       <c r="K6" t="n">
-        <v>-88029.12829484373</v>
+        <v>-88029.12829484383</v>
       </c>
       <c r="L6" t="n">
         <v>-125609.2375897178</v>
       </c>
       <c r="M6" t="n">
-        <v>-295217.6965869166</v>
+        <v>-295217.6965869168</v>
       </c>
       <c r="N6" t="n">
-        <v>-88029.12829484361</v>
+        <v>-88029.12829484373</v>
       </c>
       <c r="O6" t="n">
-        <v>-88029.12829484371</v>
+        <v>-88029.12829484385</v>
       </c>
       <c r="P6" t="n">
-        <v>-88029.12829484369</v>
+        <v>-88029.1282948438</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953826</v>
+        <v>15.50424729953945</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996668</v>
+        <v>917.2180761996664</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="L4" t="n">
         <v>1014.336461208614</v>
       </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
-      </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953826</v>
+        <v>15.50424729953945</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958706</v>
+        <v>19.51701341958588</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737407</v>
+        <v>85.81662079737384</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.11838500894817</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096108</v>
+        <v>338.8364790096107</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713488</v>
+        <v>208.0729649713487</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851971</v>
+        <v>6.659224593851568</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25990811678395</v>
+        <v>3.259908116783437</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886688</v>
+        <v>145.9538669886685</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763429</v>
+        <v>207.5997558763428</v>
       </c>
       <c r="T5" t="n">
-        <v>222.8230059759757</v>
+        <v>222.8230059759756</v>
       </c>
       <c r="U5" t="n">
         <v>251.3406666172477</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.2484409523455</v>
+        <v>88.2484409523454</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573498</v>
+        <v>98.08728580573482</v>
       </c>
       <c r="S6" t="n">
-        <v>171.0637325442761</v>
+        <v>171.063732544276</v>
       </c>
       <c r="T6" t="n">
         <v>200.0303097960643</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.609687221244</v>
+        <v>154.6096872212439</v>
       </c>
       <c r="J7" t="n">
-        <v>91.3825156699759</v>
+        <v>91.38251566997576</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263533</v>
+        <v>19.02122493263508</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946411</v>
+        <v>83.82090190946393</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059643</v>
+        <v>176.0362765059642</v>
       </c>
       <c r="S7" t="n">
         <v>223.5293580029851</v>
@@ -27950,7 +27950,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448037</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307291</v>
+        <v>11.4795429504475</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.47954295044724</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307293</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044744</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="U22" t="n">
-        <v>11.4795429504473</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I25" t="n">
-        <v>11.47954295044737</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044781</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307294</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995277</v>
+        <v>0.06232863235995752</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563664</v>
+        <v>0.6383231061564151</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057082</v>
+        <v>2.402924599057265</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760546</v>
+        <v>5.290064760760949</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557349</v>
+        <v>7.928435768557953</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143256</v>
+        <v>9.835925651144004</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687457</v>
+        <v>10.9443624668754</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356728</v>
+        <v>11.12145369356813</v>
       </c>
       <c r="O5" t="n">
-        <v>10.501673355538</v>
+        <v>10.5016733555388</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151666</v>
+        <v>8.962935244152348</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760854</v>
+        <v>6.730791097761368</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952480887</v>
+        <v>3.915250952481185</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902425</v>
+        <v>1.420313709902533</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556934</v>
+        <v>0.2728435881557142</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796221</v>
+        <v>0.004986290588796601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240306</v>
+        <v>0.0333487583424056</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753138</v>
+        <v>0.3220787976753384</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069579</v>
+        <v>1.148191899069667</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1507263309373</v>
+        <v>3.15072633093754</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878305</v>
+        <v>5.385093139878715</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336244</v>
+        <v>7.240922288336796</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248353</v>
+        <v>8.449814778248996</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232219996</v>
+        <v>8.673456232220657</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264643</v>
+        <v>7.934517955265248</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559405</v>
+        <v>6.368150178559891</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749110959</v>
+        <v>4.256939749111283</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908148</v>
+        <v>2.070548346908307</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617407</v>
+        <v>0.6194385595617878</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573176</v>
+        <v>0.1344188987573278</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368623</v>
+        <v>0.00219399725936879</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687228</v>
+        <v>0.02795847873687441</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696464</v>
+        <v>0.2485762927696654</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143047</v>
+        <v>0.8407877060143688</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97666444669687</v>
+        <v>1.97666444669702</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247524</v>
+        <v>3.248266893247771</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207357</v>
+        <v>4.156663284207673</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625998988</v>
+        <v>4.382618625999321</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707012</v>
+        <v>4.278409750707338</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462639</v>
+        <v>3.95180388546294</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230442</v>
+        <v>3.3814509192307</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230278</v>
+        <v>2.341141342230456</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205184</v>
+        <v>1.25711487120528</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871285</v>
+        <v>0.4872400339871656</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546029997</v>
+        <v>0.1194589546030088</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102126</v>
+        <v>0.001525007931102242</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31546,16 +31546,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S8" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I9" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K9" t="n">
         <v>12.16394109335884</v>
@@ -31613,7 +31613,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O9" t="n">
         <v>17.92262575689049</v>
@@ -31671,22 +31671,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H10" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K10" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M10" t="n">
         <v>9.899534402948818</v>
@@ -31695,10 +31695,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q10" t="n">
         <v>5.288210368587925</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754658</v>
+        <v>72.49963293754662</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758688</v>
       </c>
       <c r="L13" t="n">
         <v>346.6785884946785</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5545957179642</v>
+        <v>374.5545957179643</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7781624920204</v>
+        <v>371.7781624920205</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471201</v>
+        <v>329.2743465471202</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8782874695908</v>
+        <v>261.8782874695909</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623741</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754658</v>
+        <v>72.49963293754656</v>
       </c>
       <c r="K16" t="n">
         <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946784</v>
+        <v>346.6785884946785</v>
       </c>
       <c r="M16" t="n">
         <v>374.5545957179642</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037204</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>526.2461405349272</v>
       </c>
       <c r="Q23" t="n">
-        <v>421.4968346071068</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q26" t="n">
-        <v>418.531271446555</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>219.4430857447512</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2134278768866</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>315.305592123719</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>416.1845670468748</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,22 +37306,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
         <v>418.5312714465564</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>315.3055921237172</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37555,13 +37555,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>359.5297983552924</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768883</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597722</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794555</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>418.5312714465564</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
